--- a/Data/Social_Data/Mortality_Rate/3_CDR.xlsx
+++ b/Data/Social_Data/Mortality_Rate/3_CDR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ambika/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ambika/Documents/Final_Project_V2/Data/Social_Data/Mortality_Rate/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10819,13 +10819,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11:AR11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AR3" sqref="AR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.2">
